--- a/week12/活頁簿2.xlsx
+++ b/week12/活頁簿2.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/liurenhao/Documents/GitHub/111-1-econDV/111-1-econDV/week12/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ABF05DC8-9A60-4143-AF3C-3030AEF9C841}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1951A582-5876-C349-BD4D-B30C5FDA0F14}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="3420" yWindow="500" windowWidth="25380" windowHeight="16320" activeTab="1" xr2:uid="{90891E22-6E31-EE4A-A8D0-16ED600C7E8A}"/>
   </bookViews>
@@ -11488,7 +11488,7 @@
   <dimension ref="A1:K33"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="125" workbookViewId="0">
-      <selection activeCell="E19" sqref="E19"/>
+      <selection activeCell="F20" sqref="F20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
